--- a/gantt-chart TIMELINE.xlsx
+++ b/gantt-chart TIMELINE.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
-    <sheet name="GanttChartPro" sheetId="12" r:id="rId2"/>
-    <sheet name="Help" sheetId="6" r:id="rId3"/>
-    <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
+    <sheet name="GanttChartPro" sheetId="12" state="hidden" r:id="rId2"/>
+    <sheet name="Help" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="TermsOfUse" sheetId="11" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="191">
   <si>
     <t>RICEF BY LEUWITEX</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>WORK DAYS</t>
+  </si>
+  <si>
+    <t>Baim, Budi</t>
   </si>
   <si>
     <t>Billy, Baim, Budi</t>
@@ -1720,16 +1723,37 @@
   <si>
     <t>Modifikasi Form Invoice (Barang Bekas, Avfal, BS, Maklon, Masker)</t>
   </si>
+  <si>
+    <t>Modifikasi Form Surat Jalan (Barang Bekas, Avfal, BS, Maklon, Masker)</t>
+  </si>
+  <si>
+    <t>Modifikasi Form Transfer Posting</t>
+  </si>
+  <si>
+    <t>Modifikasi Form Purchase Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifikasi Form Good Receipt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifikasi Form Good Issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifikasi Form Bukti Tanda Terima </t>
+  </si>
+  <si>
+    <t>AFTER UAT(9 Feb 2026)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy\ \(dddd\)"/>
-    <numFmt numFmtId="167" formatCode="ddd\ m/dd/yy"/>
-    <numFmt numFmtId="168" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -2420,10 +2444,10 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2441,10 +2465,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="34" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,7 +2486,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2480,10 +2504,10 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,7 +2540,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2528,10 +2552,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2544,18 +2574,12 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2566,7 +2590,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2580,6 +2604,16 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2606,6 +2640,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2630,6 +2678,16 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
@@ -2652,6 +2710,68 @@
           <color rgb="FFC00000"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3061,54 +3181,6 @@
         </right>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3201,14 +3273,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -3807,16 +3879,16 @@
   <dimension ref="A1:BN93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
@@ -3835,27 +3907,27 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
       <c r="I1" s="86"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1">
       <c r="A2" s="51"/>
@@ -3893,11 +3965,11 @@
       <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="112">
         <v>45986</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="56"/>
       <c r="G4" s="57" t="s">
         <v>2</v>
@@ -3907,182 +3979,182 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="59"/>
-      <c r="K4" s="106" t="str">
+      <c r="K4" s="108" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="106" t="str">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="108" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="106" t="str">
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="108" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="106" t="str">
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="108" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="106" t="str">
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="108" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="106" t="str">
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="108" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="108"/>
-      <c r="BA4" s="106" t="str">
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="108" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="108"/>
-      <c r="BH4" s="106" t="str">
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="108" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="107"/>
-      <c r="BN4" s="108"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="109"/>
+      <c r="BM4" s="109"/>
+      <c r="BN4" s="110"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="59"/>
-      <c r="K5" s="110">
+      <c r="K5" s="104">
         <f>K6</f>
         <v>45985</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="110">
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="104">
         <f>R6</f>
         <v>45992</v>
       </c>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="110">
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="104">
         <f>Y6</f>
         <v>45999</v>
       </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="110">
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="104">
         <f>AF6</f>
         <v>46006</v>
       </c>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="110">
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="104">
         <f>AM6</f>
         <v>46013</v>
       </c>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="110">
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="104">
         <f>AT6</f>
         <v>46020</v>
       </c>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="110">
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="104">
         <f>BA6</f>
         <v>46027</v>
       </c>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="110">
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="106"/>
+      <c r="BH5" s="104">
         <f>BH6</f>
         <v>46034</v>
       </c>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111"/>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="112"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="105"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="105"/>
+      <c r="BN5" s="106"/>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="59"/>
@@ -4320,7 +4392,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" ht="33.75">
+    <row r="7" spans="1:66" s="1" customFormat="1" ht="24">
       <c r="A7" s="60" t="s">
         <v>5</v>
       </c>
@@ -4580,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="67"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69" t="str">
-        <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
+        <f t="shared" ref="F8:F21" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="71"/>
       <c r="I8" s="92" t="str">
-        <f t="shared" ref="I8:I59" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I59" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="93"/>
@@ -4655,11 +4727,11 @@
     </row>
     <row r="9" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A9" s="72" t="str">
-        <f t="shared" ref="A9:A14" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A20" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>14</v>
@@ -4669,7 +4741,7 @@
         <v>45987</v>
       </c>
       <c r="F9" s="76">
-        <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <f t="shared" si="4"/>
         <v>45987</v>
       </c>
       <c r="G9" s="77">
@@ -4679,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J9" s="96"/>
@@ -4742,11 +4814,11 @@
     </row>
     <row r="10" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A10" s="72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>14</v>
@@ -4756,18 +4828,18 @@
         <v>45988</v>
       </c>
       <c r="F10" s="76">
-        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>46001</v>
+        <f t="shared" si="4"/>
+        <v>46054</v>
       </c>
       <c r="G10" s="77">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H10" s="78">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I10" s="95">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
       <c r="J10" s="96"/>
       <c r="K10" s="72"/>
@@ -4829,11 +4901,11 @@
     </row>
     <row r="11" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A11" s="72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>14</v>
@@ -4843,7 +4915,7 @@
         <v>45995</v>
       </c>
       <c r="F11" s="76">
-        <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" si="4"/>
         <v>46001</v>
       </c>
       <c r="G11" s="77">
@@ -4853,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="95">
-        <f t="shared" ref="I11" si="6">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+        <f t="shared" ref="I11" si="7">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
         <v>5</v>
       </c>
       <c r="J11" s="96"/>
@@ -4916,21 +4988,21 @@
     </row>
     <row r="12" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A12" s="72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="75">
         <v>46009</v>
       </c>
       <c r="F12" s="76">
-        <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" si="4"/>
         <v>46014</v>
       </c>
       <c r="G12" s="77">
@@ -4940,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="95">
-        <f>IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
+        <f t="shared" ref="I12:I20" si="8">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
         <v>4</v>
       </c>
       <c r="J12" s="96"/>
@@ -5003,11 +5075,11 @@
     </row>
     <row r="13" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A13" s="72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>14</v>
@@ -5017,7 +5089,7 @@
         <v>46015</v>
       </c>
       <c r="F13" s="76">
-        <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <f t="shared" si="4"/>
         <v>46028</v>
       </c>
       <c r="G13" s="77">
@@ -5027,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="95">
-        <f>IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="96"/>
@@ -5088,34 +5160,34 @@
       <c r="BM13" s="72"/>
       <c r="BN13" s="72"/>
     </row>
-    <row r="14" spans="1:66" s="48" customFormat="1" ht="24">
+    <row r="14" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A14" s="72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="75">
         <v>46013</v>
       </c>
       <c r="F14" s="76">
-        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v>46026</v>
+        <f t="shared" si="4"/>
+        <v>46021</v>
       </c>
       <c r="G14" s="77">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H14" s="78">
         <v>0</v>
       </c>
       <c r="I14" s="95">
-        <f>IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="J14" s="96"/>
       <c r="K14" s="72"/>
@@ -5175,15 +5247,35 @@
       <c r="BM14" s="72"/>
       <c r="BN14" s="72"/>
     </row>
-    <row r="15" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
+    <row r="15" spans="1:66" s="48" customFormat="1" ht="24">
+      <c r="A15" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="75">
+        <v>46013</v>
+      </c>
+      <c r="F15" s="76">
+        <f t="shared" si="4"/>
+        <v>46021</v>
+      </c>
+      <c r="G15" s="77">
+        <v>9</v>
+      </c>
+      <c r="H15" s="78">
+        <v>0</v>
+      </c>
+      <c r="I15" s="95">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
       <c r="J15" s="96"/>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
@@ -5243,14 +5335,34 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
+      <c r="E16" s="75">
+        <v>46022</v>
+      </c>
+      <c r="F16" s="76">
+        <f t="shared" si="4"/>
+        <v>46029</v>
+      </c>
+      <c r="G16" s="77">
+        <v>8</v>
+      </c>
+      <c r="H16" s="78">
+        <v>0</v>
+      </c>
+      <c r="I16" s="95">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="J16" s="96"/>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
@@ -5310,14 +5422,34 @@
       <c r="BN16" s="72"/>
     </row>
     <row r="17" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="75">
+        <v>46022</v>
+      </c>
+      <c r="F17" s="76">
+        <f t="shared" si="4"/>
+        <v>46029</v>
+      </c>
+      <c r="G17" s="77">
+        <v>8</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="95">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="J17" s="96"/>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
@@ -5377,14 +5509,34 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.10</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>22</v>
+      </c>
       <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="95"/>
+      <c r="E18" s="75">
+        <v>46235</v>
+      </c>
+      <c r="F18" s="76">
+        <f t="shared" si="4"/>
+        <v>46242</v>
+      </c>
+      <c r="G18" s="77">
+        <v>8</v>
+      </c>
+      <c r="H18" s="78">
+        <v>0</v>
+      </c>
+      <c r="I18" s="95">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="J18" s="96"/>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
@@ -5444,14 +5596,34 @@
       <c r="BN18" s="72"/>
     </row>
     <row r="19" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.11</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="95"/>
+      <c r="E19" s="75">
+        <v>46235</v>
+      </c>
+      <c r="F19" s="76">
+        <f t="shared" si="4"/>
+        <v>46242</v>
+      </c>
+      <c r="G19" s="77">
+        <v>8</v>
+      </c>
+      <c r="H19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="95">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="J19" s="96"/>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
@@ -5511,14 +5683,34 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>1.12</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>22</v>
+      </c>
       <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="75">
+        <v>46243</v>
+      </c>
+      <c r="F20" s="76">
+        <f t="shared" si="4"/>
+        <v>46250</v>
+      </c>
+      <c r="G20" s="77">
+        <v>8</v>
+      </c>
+      <c r="H20" s="78">
+        <v>0</v>
+      </c>
+      <c r="I20" s="95">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="J20" s="96"/>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
@@ -5577,72 +5769,84 @@
       <c r="BM20" s="72"/>
       <c r="BN20" s="72"/>
     </row>
-    <row r="21" spans="1:66" s="48" customFormat="1" ht="18">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="72"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="72"/>
-      <c r="BA21" s="72"/>
-      <c r="BB21" s="72"/>
-      <c r="BC21" s="72"/>
-      <c r="BD21" s="72"/>
-      <c r="BE21" s="72"/>
-      <c r="BF21" s="72"/>
-      <c r="BG21" s="72"/>
-      <c r="BH21" s="72"/>
-      <c r="BI21" s="72"/>
-      <c r="BJ21" s="72"/>
-      <c r="BK21" s="72"/>
-      <c r="BL21" s="72"/>
-      <c r="BM21" s="72"/>
-      <c r="BN21" s="72"/>
+    <row r="21" spans="1:66" s="47" customFormat="1" ht="18">
+      <c r="A21" s="64" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="92" t="str">
+        <f t="shared" ref="I21" si="9">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="94"/>
+      <c r="AW21" s="94"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="94"/>
+      <c r="AZ21" s="94"/>
+      <c r="BA21" s="94"/>
+      <c r="BB21" s="94"/>
+      <c r="BC21" s="94"/>
+      <c r="BD21" s="94"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="94"/>
+      <c r="BH21" s="94"/>
+      <c r="BI21" s="94"/>
+      <c r="BJ21" s="94"/>
+      <c r="BK21" s="94"/>
+      <c r="BL21" s="94"/>
+      <c r="BM21" s="94"/>
+      <c r="BN21" s="94"/>
     </row>
     <row r="22" spans="1:66" s="48" customFormat="1" ht="18">
       <c r="A22" s="72"/>
@@ -7794,18 +7998,18 @@
         <v>1</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="82"/>
       <c r="F54" s="82" t="str">
-        <f t="shared" ref="F54:F59" si="7">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
+        <f t="shared" ref="F54:F59" si="10">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="84"/>
       <c r="I54" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J54" s="98"/>
@@ -7866,23 +8070,23 @@
       <c r="BM54" s="99"/>
       <c r="BN54" s="99"/>
     </row>
-    <row r="55" spans="1:66" s="48" customFormat="1" ht="24" hidden="1">
+    <row r="55" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A55" s="72" t="str">
-        <f t="shared" ref="A55:A93" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A55:A93" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="74"/>
       <c r="E55" s="75">
         <v>46057</v>
       </c>
       <c r="F55" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46063</v>
       </c>
       <c r="G55" s="77">
@@ -7892,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J55" s="96"/>
@@ -7955,21 +8159,21 @@
     </row>
     <row r="56" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A56" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="B56" s="73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="74"/>
       <c r="E56" s="75">
         <v>46064</v>
       </c>
       <c r="F56" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46070</v>
       </c>
       <c r="G56" s="77">
@@ -7979,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J56" s="96"/>
@@ -8042,21 +8246,21 @@
     </row>
     <row r="57" spans="1:66" s="48" customFormat="1" ht="44.25" hidden="1" customHeight="1">
       <c r="A57" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
       <c r="B57" s="73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="74"/>
       <c r="E57" s="75">
         <v>46064</v>
       </c>
       <c r="F57" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46070</v>
       </c>
       <c r="G57" s="77">
@@ -8066,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J57" s="96"/>
@@ -8127,23 +8331,23 @@
       <c r="BM57" s="72"/>
       <c r="BN57" s="72"/>
     </row>
-    <row r="58" spans="1:66" s="48" customFormat="1" ht="24" hidden="1">
+    <row r="58" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A58" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="74"/>
       <c r="E58" s="75">
         <v>46071</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46077</v>
       </c>
       <c r="G58" s="77">
@@ -8153,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J58" s="96"/>
@@ -8216,21 +8420,21 @@
     </row>
     <row r="59" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A59" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="74"/>
       <c r="E59" s="75">
         <v>46071</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46077</v>
       </c>
       <c r="G59" s="77">
@@ -8240,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J59" s="96"/>
@@ -8303,21 +8507,21 @@
     </row>
     <row r="60" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A60" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="B60" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="74"/>
       <c r="E60" s="75">
         <v>46078</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" ref="F60:F74" si="9">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <f t="shared" ref="F60:F74" si="12">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
         <v>46084</v>
       </c>
       <c r="G60" s="77">
@@ -8327,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="95">
-        <f t="shared" ref="I60:I74" si="10">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" ref="I60:I74" si="13">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>5</v>
       </c>
       <c r="J60" s="96"/>
@@ -8388,23 +8592,23 @@
       <c r="BM60" s="72"/>
       <c r="BN60" s="72"/>
     </row>
-    <row r="61" spans="1:66" s="48" customFormat="1" ht="24" hidden="1">
+    <row r="61" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A61" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="B61" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" s="74"/>
       <c r="E61" s="75">
         <v>46078</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46084</v>
       </c>
       <c r="G61" s="77">
@@ -8414,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J61" s="96"/>
@@ -8477,21 +8681,21 @@
     </row>
     <row r="62" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A62" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="B62" s="73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="74"/>
       <c r="E62" s="75">
         <v>46057</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46063</v>
       </c>
       <c r="G62" s="77">
@@ -8501,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J62" s="96"/>
@@ -8564,21 +8768,21 @@
     </row>
     <row r="63" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A63" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
       <c r="B63" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="74"/>
       <c r="E63" s="75">
         <v>46085</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46091</v>
       </c>
       <c r="G63" s="77">
@@ -8588,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J63" s="96"/>
@@ -8649,23 +8853,23 @@
       <c r="BM63" s="72"/>
       <c r="BN63" s="72"/>
     </row>
-    <row r="64" spans="1:66" s="48" customFormat="1" ht="24" hidden="1">
+    <row r="64" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A64" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.10</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" s="74"/>
       <c r="E64" s="75">
         <v>46085</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46091</v>
       </c>
       <c r="G64" s="77">
@@ -8675,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J64" s="96"/>
@@ -8738,21 +8942,21 @@
     </row>
     <row r="65" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A65" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.11</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" s="74"/>
       <c r="E65" s="75">
         <v>46092</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46098</v>
       </c>
       <c r="G65" s="77">
@@ -8762,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J65" s="96"/>
@@ -8825,21 +9029,21 @@
     </row>
     <row r="66" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A66" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.12</v>
       </c>
       <c r="B66" s="73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="74"/>
       <c r="E66" s="75">
         <v>46092</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46098</v>
       </c>
       <c r="G66" s="77">
@@ -8849,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J66" s="96"/>
@@ -8912,21 +9116,21 @@
     </row>
     <row r="67" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A67" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.13</v>
       </c>
       <c r="B67" s="73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" s="74"/>
       <c r="E67" s="75">
         <v>46099</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46105</v>
       </c>
       <c r="G67" s="77">
@@ -8936,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J67" s="96"/>
@@ -8999,21 +9203,21 @@
     </row>
     <row r="68" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A68" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.14</v>
       </c>
       <c r="B68" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" s="74"/>
       <c r="E68" s="75">
         <v>46106</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" ref="F68" si="11">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <f t="shared" ref="F68" si="14">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
         <v>46112</v>
       </c>
       <c r="G68" s="77">
@@ -9023,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="95">
-        <f t="shared" ref="I68" si="12">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <f t="shared" ref="I68" si="15">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
         <v>5</v>
       </c>
       <c r="J68" s="96"/>
@@ -9086,21 +9290,21 @@
     </row>
     <row r="69" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A69" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.15</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="74"/>
       <c r="E69" s="75">
         <v>46106</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" ref="F69" si="13">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <f t="shared" ref="F69" si="16">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
         <v>46112</v>
       </c>
       <c r="G69" s="77">
@@ -9110,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="95">
-        <f t="shared" ref="I69" si="14">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+        <f t="shared" ref="I69" si="17">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
         <v>5</v>
       </c>
       <c r="J69" s="96"/>
@@ -9173,21 +9377,21 @@
     </row>
     <row r="70" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A70" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.16</v>
       </c>
       <c r="B70" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" s="74"/>
       <c r="E70" s="75">
         <v>46113</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46119</v>
       </c>
       <c r="G70" s="77">
@@ -9197,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J70" s="96"/>
@@ -9260,21 +9464,21 @@
     </row>
     <row r="71" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A71" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.17</v>
       </c>
       <c r="B71" s="73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" s="74"/>
       <c r="E71" s="75">
         <v>46113</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46119</v>
       </c>
       <c r="G71" s="77">
@@ -9284,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J71" s="96"/>
@@ -9347,21 +9551,21 @@
     </row>
     <row r="72" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A72" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.18</v>
       </c>
       <c r="B72" s="73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" s="74"/>
       <c r="E72" s="75">
         <v>46120</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46126</v>
       </c>
       <c r="G72" s="77">
@@ -9371,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J72" s="96"/>
@@ -9434,21 +9638,21 @@
     </row>
     <row r="73" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A73" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.19</v>
       </c>
       <c r="B73" s="73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="74"/>
       <c r="E73" s="75">
         <v>46120</v>
       </c>
       <c r="F73" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46126</v>
       </c>
       <c r="G73" s="77">
@@ -9458,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J73" s="96"/>
@@ -9521,21 +9725,21 @@
     </row>
     <row r="74" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A74" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.20</v>
       </c>
       <c r="B74" s="73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" s="74"/>
       <c r="E74" s="75">
         <v>46127</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46133</v>
       </c>
       <c r="G74" s="77">
@@ -9545,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J74" s="96"/>
@@ -9608,21 +9812,21 @@
     </row>
     <row r="75" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A75" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.21</v>
       </c>
       <c r="B75" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="74"/>
       <c r="E75" s="75">
         <v>46127</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" ref="F75:F85" si="15">IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
+        <f t="shared" ref="F75:F85" si="18">IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
         <v>46133</v>
       </c>
       <c r="G75" s="77">
@@ -9632,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="95">
-        <f t="shared" ref="I75:I83" si="16">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <f t="shared" ref="I75:I83" si="19">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
         <v>5</v>
       </c>
       <c r="J75" s="96"/>
@@ -9695,21 +9899,21 @@
     </row>
     <row r="76" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A76" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.22</v>
       </c>
       <c r="B76" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" s="74"/>
       <c r="E76" s="75">
         <v>46134</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46140</v>
       </c>
       <c r="G76" s="77">
@@ -9719,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J76" s="96"/>
@@ -9782,21 +9986,21 @@
     </row>
     <row r="77" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A77" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.23</v>
       </c>
       <c r="B77" s="73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="74"/>
       <c r="E77" s="75">
         <v>46134</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" ref="F77:F78" si="17">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
+        <f t="shared" ref="F77:F78" si="20">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
         <v>46140</v>
       </c>
       <c r="G77" s="77">
@@ -9806,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="95">
-        <f t="shared" ref="I77:I78" si="18">IF(OR(F77=0,E77=0)," - ",NETWORKDAYS(E77,F77))</f>
+        <f t="shared" ref="I77:I78" si="21">IF(OR(F77=0,E77=0)," - ",NETWORKDAYS(E77,F77))</f>
         <v>5</v>
       </c>
       <c r="J77" s="96"/>
@@ -9869,21 +10073,21 @@
     </row>
     <row r="78" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A78" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.24</v>
       </c>
       <c r="B78" s="73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" s="74"/>
       <c r="E78" s="75">
         <v>46141</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>46147</v>
       </c>
       <c r="G78" s="77">
@@ -9893,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="J78" s="96"/>
@@ -9956,21 +10160,21 @@
     </row>
     <row r="79" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A79" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="B79" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" s="74"/>
       <c r="E79" s="75">
         <v>46141</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" ref="F79:F81" si="19">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
+        <f t="shared" ref="F79:F81" si="22">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
         <v>46147</v>
       </c>
       <c r="G79" s="77">
@@ -9980,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="95">
-        <f t="shared" ref="I79:I81" si="20">IF(OR(F79=0,E79=0)," - ",NETWORKDAYS(E79,F79))</f>
+        <f t="shared" ref="I79:I81" si="23">IF(OR(F79=0,E79=0)," - ",NETWORKDAYS(E79,F79))</f>
         <v>5</v>
       </c>
       <c r="J79" s="96"/>
@@ -10043,21 +10247,21 @@
     </row>
     <row r="80" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A80" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.26</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" s="74"/>
       <c r="E80" s="75">
         <v>46148</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>46154</v>
       </c>
       <c r="G80" s="77">
@@ -10067,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J80" s="96"/>
@@ -10130,21 +10334,21 @@
     </row>
     <row r="81" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A81" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.27</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" s="74"/>
       <c r="E81" s="75">
         <v>46148</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>46154</v>
       </c>
       <c r="G81" s="77">
@@ -10154,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J81" s="96"/>
@@ -10221,18 +10425,18 @@
         <v>2</v>
       </c>
       <c r="B82" s="80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D82" s="81"/>
       <c r="E82" s="82"/>
       <c r="F82" s="82" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G82" s="83"/>
       <c r="H82" s="84"/>
       <c r="I82" s="97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J82" s="98"/>
@@ -10295,21 +10499,21 @@
     </row>
     <row r="83" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A83" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
       <c r="B83" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="74"/>
       <c r="E83" s="75">
         <v>46034</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46038</v>
       </c>
       <c r="G83" s="77">
@@ -10319,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J83" s="96"/>
@@ -10382,21 +10586,21 @@
     </row>
     <row r="84" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A84" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2</v>
       </c>
       <c r="B84" s="85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="74"/>
       <c r="E84" s="75">
         <v>46023</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46032</v>
       </c>
       <c r="G84" s="77">
@@ -10468,21 +10672,21 @@
     </row>
     <row r="85" spans="1:66" s="48" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A85" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3</v>
       </c>
       <c r="B85" s="85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C85" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" s="74"/>
       <c r="E85" s="75">
         <v>46034</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46038</v>
       </c>
       <c r="G85" s="77">
@@ -10558,18 +10762,18 @@
         <v>3</v>
       </c>
       <c r="B86" s="80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86" s="81"/>
       <c r="E86" s="82"/>
       <c r="F86" s="82" t="str">
-        <f t="shared" ref="F86:F91" si="21">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
+        <f t="shared" ref="F86:F91" si="24">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="84"/>
       <c r="I86" s="97" t="str">
-        <f t="shared" ref="I86" si="22">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
+        <f t="shared" ref="I86" si="25">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J86" s="98"/>
@@ -10632,21 +10836,21 @@
     </row>
     <row r="87" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A87" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1</v>
       </c>
       <c r="B87" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="74"/>
       <c r="E87" s="75">
         <v>46041</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>46044</v>
       </c>
       <c r="G87" s="77">
@@ -10718,21 +10922,21 @@
     </row>
     <row r="88" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A88" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.2</v>
       </c>
       <c r="B88" s="85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" s="74"/>
       <c r="E88" s="75">
         <v>46041</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>46044</v>
       </c>
       <c r="G88" s="77">
@@ -10804,21 +11008,21 @@
     </row>
     <row r="89" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A89" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.3</v>
       </c>
       <c r="B89" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" s="74"/>
       <c r="E89" s="75">
         <v>46045</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>46050</v>
       </c>
       <c r="G89" s="77">
@@ -10890,21 +11094,21 @@
     </row>
     <row r="90" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A90" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.4</v>
       </c>
       <c r="B90" s="85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" s="74"/>
       <c r="E90" s="75">
         <v>46051</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>46056</v>
       </c>
       <c r="G90" s="77">
@@ -10976,21 +11180,21 @@
     </row>
     <row r="91" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A91" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="B91" s="85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="74"/>
       <c r="E91" s="75">
         <v>46045</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>46050</v>
       </c>
       <c r="G91" s="77">
@@ -11066,18 +11270,18 @@
         <v>4</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" s="81"/>
       <c r="E92" s="82"/>
       <c r="F92" s="82" t="str">
-        <f t="shared" ref="F92:F93" si="23">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
+        <f t="shared" ref="F92:F93" si="26">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G92" s="83"/>
       <c r="H92" s="84"/>
       <c r="I92" s="97" t="str">
-        <f t="shared" ref="I92" si="24">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
+        <f t="shared" ref="I92" si="27">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J92" s="98"/>
@@ -11140,21 +11344,21 @@
     </row>
     <row r="93" spans="1:66" s="48" customFormat="1" ht="18" hidden="1">
       <c r="A93" s="72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1</v>
       </c>
       <c r="B93" s="85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="74"/>
       <c r="E93" s="75">
         <v>46051</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>46056</v>
       </c>
       <c r="G93" s="77">
@@ -11227,6 +11431,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="AM5:AS5"/>
     <mergeCell ref="AT5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
@@ -11236,19 +11450,9 @@
     <mergeCell ref="R5:X5"/>
     <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11262,18 +11466,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="70" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="69" priority="47">
       <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="68" priority="48">
       <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11287,18 +11491,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="55" priority="54">
+    <cfRule type="expression" dxfId="67" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="66" priority="83">
       <formula>AND($E68&lt;=K$6,ROUNDDOWN(($F68-$E68+1)*$H68,0)+$E68-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="56">
+    <cfRule type="expression" dxfId="65" priority="84">
       <formula>AND(NOT(ISBLANK($E68)),$E68&lt;=K$6,$F68&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11312,18 +11516,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="64" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="63" priority="79">
       <formula>AND($E69&lt;=K$6,ROUNDDOWN(($F69-$E69+1)*$H69,0)+$E69-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="62" priority="80">
       <formula>AND(NOT(ISBLANK($E69)),$E69&lt;=K$6,$F69&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11337,18 +11541,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="49" priority="46">
+    <cfRule type="expression" dxfId="61" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="47">
+    <cfRule type="expression" dxfId="60" priority="75">
       <formula>AND($E77&lt;=K$6,ROUNDDOWN(($F77-$E77+1)*$H77,0)+$E77-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="59" priority="76">
       <formula>AND(NOT(ISBLANK($E77)),$E77&lt;=K$6,$F77&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11362,18 +11566,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="58" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="57" priority="67">
       <formula>AND($E78&lt;=K$6,ROUNDDOWN(($F78-$E78+1)*$H78,0)+$E78-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>AND(NOT(ISBLANK($E78)),$E78&lt;=K$6,$F78&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11387,18 +11591,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="55" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="35">
+    <cfRule type="expression" dxfId="54" priority="63">
       <formula>AND($E79&lt;=K$6,ROUNDDOWN(($F79-$E79+1)*$H79,0)+$E79-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="36">
+    <cfRule type="expression" dxfId="53" priority="64">
       <formula>AND(NOT(ISBLANK($E79)),$E79&lt;=K$6,$F79&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11412,18 +11616,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>AND($E80&lt;=K$6,ROUNDDOWN(($F80-$E80+1)*$H80,0)+$E80-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>AND(NOT(ISBLANK($E80)),$E80&lt;=K$6,$F80&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11437,18 +11641,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>AND($E81&lt;=K$6,ROUNDDOWN(($F81-$E81+1)*$H81,0)+$E81-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>AND(NOT(ISBLANK($E81)),$E81&lt;=K$6,$F81&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11462,12 +11666,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:BN82">
-    <cfRule type="expression" dxfId="34" priority="94">
+    <cfRule type="expression" dxfId="46" priority="122">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11481,12 +11685,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="33" priority="82">
+    <cfRule type="expression" dxfId="45" priority="110">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11500,12 +11704,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="32" priority="62">
+    <cfRule type="expression" dxfId="44" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11519,12 +11723,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="31" priority="58">
+    <cfRule type="expression" dxfId="43" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H64">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11538,7 +11742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H67">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11552,7 +11756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H74">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11566,7 +11770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75:H76">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11580,7 +11784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H85">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11594,7 +11798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H91">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11608,17 +11812,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="30" priority="169">
+    <cfRule type="expression" dxfId="42" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN10 K54:BN59 K15:BN52">
-    <cfRule type="expression" dxfId="29" priority="132">
+  <conditionalFormatting sqref="K6:BN10 K54:BN59 K22:BN52">
+    <cfRule type="expression" dxfId="41" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H10 H54:H59 H15:H52">
-    <cfRule type="dataBar" priority="126">
+  <conditionalFormatting sqref="H8:H10 H54:H59 H22:H52">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11631,51 +11835,51 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN10 K70:BN76 K82:BN93 K54:BN67 K15:BN52">
-    <cfRule type="expression" dxfId="28" priority="172">
+  <conditionalFormatting sqref="K8:BN10 K70:BN76 K82:BN93 K54:BN67 K22:BN52">
+    <cfRule type="expression" dxfId="40" priority="200">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="173">
+    <cfRule type="expression" dxfId="39" priority="201">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN64">
-    <cfRule type="expression" dxfId="26" priority="114">
+    <cfRule type="expression" dxfId="38" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:BN67">
-    <cfRule type="expression" dxfId="25" priority="110">
+    <cfRule type="expression" dxfId="37" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN74">
-    <cfRule type="expression" dxfId="24" priority="106">
+    <cfRule type="expression" dxfId="36" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN76">
-    <cfRule type="expression" dxfId="23" priority="102">
+    <cfRule type="expression" dxfId="35" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BN85">
-    <cfRule type="expression" dxfId="22" priority="90">
+    <cfRule type="expression" dxfId="34" priority="118">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:BN91">
-    <cfRule type="expression" dxfId="21" priority="74">
+    <cfRule type="expression" dxfId="33" priority="102">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11689,20 +11893,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11716,20 +11920,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11743,20 +11947,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11770,11 +11974,200 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:BN15">
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{566BD265-4DB2-42EC-83EE-8811E7054032}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:BN15">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="28">
+      <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C82E46B4-EDE5-4F85-8B9E-B84618AE9D8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F70F1E77-42D7-41E3-BA31-A96A83957F9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9B8464B-68EC-4CE0-B33A-C97BCB35C6D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="16">
+      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{044AE299-10DA-4D68-9BDD-81703175C9F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65D07F90-D2D6-40A5-BAB1-99841BD9B277}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79585EF5-C19B-4871-AA60-9BF5970475AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -12103,7 +12496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H10 H54:H59 H15:H52</xm:sqref>
+          <xm:sqref>H8:H10 H54:H59 H22:H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F8F65440-31C9-4BD4-A6C3-1FDF50F5ED81}">
@@ -12165,6 +12558,111 @@
           </x14:cfRule>
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{566BD265-4DB2-42EC-83EE-8811E7054032}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C82E46B4-EDE5-4F85-8B9E-B84618AE9D8B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F70F1E77-42D7-41E3-BA31-A96A83957F9D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9B8464B-68EC-4CE0-B33A-C97BCB35C6D6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{044AE299-10DA-4D68-9BDD-81703175C9F1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65D07F90-D2D6-40A5-BAB1-99841BD9B277}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79585EF5-C19B-4871-AA60-9BF5970475AE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -12190,17 +12688,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12208,147 +12706,147 @@
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="C7" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="C13" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15">
       <c r="B18" s="46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15">
       <c r="B22" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15">
       <c r="B26" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15">
       <c r="B34" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15">
       <c r="B39" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15">
       <c r="B42" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="18">
       <c r="B46" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -12380,13 +12878,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="17"/>
     </row>
@@ -12395,88 +12893,88 @@
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:3" ht="57">
       <c r="B5" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5">
       <c r="B7" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25">
       <c r="B9" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5">
       <c r="B11" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="113"/>
     </row>
     <row r="15" spans="1:3" s="14" customFormat="1" ht="18">
       <c r="A15" s="22"/>
       <c r="B15" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="14" customFormat="1" ht="18">
       <c r="A16" s="22"/>
       <c r="B16" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="25"/>
       <c r="B17" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="25"/>
       <c r="B18" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="25"/>
       <c r="B19" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="14" customFormat="1" ht="18">
       <c r="A20" s="22"/>
       <c r="B20" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="25"/>
       <c r="B21" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="25"/>
       <c r="B22" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -12485,14 +12983,14 @@
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24" s="113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="43.5">
       <c r="A25" s="25"/>
       <c r="B25" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -12502,19 +13000,19 @@
     <row r="27" spans="1:3" ht="18">
       <c r="A27" s="25"/>
       <c r="B27" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28" s="25"/>
       <c r="B28" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.5">
       <c r="A29" s="25"/>
       <c r="B29" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -12524,19 +13022,19 @@
     <row r="31" spans="1:3" ht="18">
       <c r="A31" s="25"/>
       <c r="B31" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32" s="25"/>
       <c r="B32" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
       <c r="A33" s="25"/>
       <c r="B33" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18">
@@ -12546,13 +13044,13 @@
     <row r="35" spans="1:2" ht="28.5">
       <c r="A35" s="25"/>
       <c r="B35" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18">
       <c r="A36" s="25"/>
       <c r="B36" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18">
@@ -12561,28 +13059,28 @@
     </row>
     <row r="38" spans="1:2" ht="18">
       <c r="A38" s="113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="113"/>
     </row>
     <row r="39" spans="1:2" ht="28.5">
       <c r="B39" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25">
       <c r="B41" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.5">
       <c r="B43" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5">
       <c r="B45" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -12590,102 +13088,102 @@
     </row>
     <row r="47" spans="1:2" ht="28.5">
       <c r="B47" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
       <c r="A49" s="113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="113"/>
     </row>
     <row r="50" spans="1:2" ht="28.5">
       <c r="B50" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25">
       <c r="A52" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25">
       <c r="A53" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25">
       <c r="A54" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.5">
       <c r="A55" s="21"/>
       <c r="B55" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5">
       <c r="A56" s="21"/>
       <c r="B56" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25">
       <c r="A57" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25">
       <c r="A58" s="21"/>
       <c r="B58" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25">
       <c r="A59" s="21"/>
       <c r="B59" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25">
       <c r="A60" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.5">
       <c r="A61" s="21"/>
       <c r="B61" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25">
       <c r="A62" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25">
       <c r="A63" s="33"/>
       <c r="B63" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -12693,33 +13191,33 @@
     </row>
     <row r="65" spans="1:2" ht="18">
       <c r="A65" s="113" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="113"/>
     </row>
     <row r="66" spans="1:2" ht="42.75">
       <c r="B66" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
       <c r="A68" s="113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" s="113"/>
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="A69" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="28.5">
       <c r="A70" s="33"/>
       <c r="B70" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25">
@@ -12728,16 +13226,16 @@
     </row>
     <row r="72" spans="1:2" ht="15">
       <c r="A72" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="28.5">
       <c r="A73" s="33"/>
       <c r="B73" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25">
@@ -12746,16 +13244,16 @@
     </row>
     <row r="75" spans="1:2" ht="15">
       <c r="A75" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="42.75">
       <c r="A76" s="33"/>
       <c r="B76" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25">
@@ -12764,16 +13262,16 @@
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="28.5">
       <c r="A79" s="33"/>
       <c r="B79" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25">
@@ -12782,28 +13280,28 @@
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25">
       <c r="A82" s="33"/>
       <c r="B82" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25">
       <c r="A83" s="33"/>
       <c r="B83" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
@@ -12812,28 +13310,28 @@
     </row>
     <row r="86" spans="1:2" ht="15">
       <c r="A86" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="42.75">
       <c r="A87" s="33"/>
       <c r="B87" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25">
       <c r="A88" s="33"/>
       <c r="B88" s="102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="57">
       <c r="A89" s="33"/>
       <c r="B89" s="103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25">
@@ -12842,21 +13340,21 @@
     </row>
     <row r="91" spans="1:2" ht="15">
       <c r="A91" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5">
       <c r="A92" s="21"/>
       <c r="B92" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -12896,7 +13394,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -12906,14 +13404,14 @@
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -12925,7 +13423,7 @@
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -12937,7 +13435,7 @@
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -12949,7 +13447,7 @@
     <row r="10" spans="1:3" ht="46.5">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -12961,7 +13459,7 @@
     <row r="12" spans="1:3" ht="45">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -12973,7 +13471,7 @@
     <row r="14" spans="1:3" ht="60">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -12985,7 +13483,7 @@
     <row r="16" spans="1:3" ht="30.75">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9"/>
     </row>
@@ -12997,14 +13495,14 @@
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="7"/>
       <c r="B19" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="9"/>
     </row>
